--- a/ES鉴权插件/使用方/大数据平台ES集群索引增加申请.xlsx
+++ b/ES鉴权插件/使用方/大数据平台ES集群索引增加申请.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\ES鉴权插件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IDEA_GITHUB\ElasticsearchMonitor\ES鉴权插件\使用方\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA74DB56-D6F0-4F23-9A6F-167555D9B258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -77,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,24 +459,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="30.25" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="31.125" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -509,7 +516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -532,13 +539,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="单位" prompt="GB" sqref="C2:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="单位" prompt="GB" sqref="C2:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="存储周期" prompt="日、月、年" sqref="B2:B1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="索引类型" prompt="模板样式" sqref="A2:A1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ES集群内保存的该类索引数" prompt="整数" sqref="D2:D1048576"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="单索引分片数" prompt="整数，包含副本分片" sqref="E2:E1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="存储周期" prompt="日、月、年" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="索引类型" prompt="模板样式" sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ES集群内保存的该类索引数" prompt="整数" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="单索引分片数" prompt="整数，包含副本分片" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
